--- a/public/Templates/InventoryList.xlsx
+++ b/public/Templates/InventoryList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hiwi_software\pueree\pueree-app\public\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Pool\Desktop\pueree-new\puere-app\public\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2667103-6BBF-49FF-A32A-AFE7A6C12C16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Art" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>content without subnav</t>
   </si>
@@ -47,16 +48,31 @@
     <t xml:space="preserve"> www.3dprima.com</t>
   </si>
   <si>
-    <t xml:space="preserve">General
-We have access to Overleaf Premium. This useful to have collaborative latex projects
-for publications and research proposals. Please get in touch with IT to set up the project for you since, 
-for security reasons, we can't provide you with the master password </t>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -101,32 +117,45 @@
     </r>
   </si>
   <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Commands</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>	Test1
+	Bgzdhdbj
+	Hshdb
+	Test1
+	Bgzdhdbj
+	hshdb</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>General</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+We have access to Overleaf Premium. This useful to have collaborative latex projects
+for publications and research proposals. Please get in touch with IT to set up the project for you since, 
+for security reasons, we can't provide you with the master password </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,6 +185,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -191,12 +228,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +261,13 @@
     <xdr:ext cx="184731" cy="254557"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -279,6 +323,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -325,24 +374,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>40968</xdr:colOff>
+      <xdr:colOff>675968</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>27312</xdr:rowOff>
+      <xdr:rowOff>734006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1283656</xdr:colOff>
+      <xdr:colOff>1918656</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>211667</xdr:rowOff>
+      <xdr:rowOff>918361</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="805699" y="355054"/>
+          <a:off x="1403145" y="1071990"/>
           <a:ext cx="1242688" cy="184355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -582,19 +637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -602,32 +657,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -636,21 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="52.453125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.90625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="52.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,27 +721,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="150.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -696,21 +756,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/Templates/InventoryList.xlsx
+++ b/public/Templates/InventoryList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC Pool\Desktop\pueree-new\puere-app\public\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2667103-6BBF-49FF-A32A-AFE7A6C12C16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EA438F-6DCC-49DE-B2D5-544F3AFB532D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>content without subnav</t>
   </si>
@@ -45,9 +45,6 @@
     <t>f</t>
   </si>
   <si>
-    <t xml:space="preserve"> www.3dprima.com</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -67,12 +64,20 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>	Test1
+	Bgzdhdbj
+	Hshdb
+	Test1
+	Bgzdhdbj
+	hshdb</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -112,23 +117,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Edit details in Excel
-thwdd</t>
+Edit details in Excel</t>
     </r>
-  </si>
-  <si>
-    <t>	Test1
-	Bgzdhdbj
-	Hshdb
-	Test1
-	Bgzdhdbj
-	hshdb</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -187,7 +183,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -659,7 +655,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -667,22 +663,22 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -721,31 +717,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="156" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -765,12 +759,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
